--- a/medicine/Handicap/Aniek_van_Koot/Aniek_van_Koot.xlsx
+++ b/medicine/Handicap/Aniek_van_Koot/Aniek_van_Koot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aniek van Koot, née le 15 août 1990 à Winterswijk, est une joueuse néerlandaise de tennis en fauteuil roulant.
@@ -512,9 +524,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aniek van Koot est née avec une jambe droite atrophiée. Après une série d'opérations correctives infructueuses, elle a finalement été amputée en 2002[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aniek van Koot est née avec une jambe droite atrophiée. Après une série d'opérations correctives infructueuses, elle a finalement été amputée en 2002.
 Elle pratique le tennis en fauteuil roulant en professionnel depuis 2000 et joue son premier tournoi international en 2009. Elle possède aujourd'hui trois titres du Grand Chelem en simple et vingt-trois en double. Elle a réalisé le Grand Chelem en double dames en 2013, associée à Jiske Griffioen.
 Elle est également titulaire de cinq médailles paralympiques, dont deux en or acquise en double aux côtés de Jiske Griffioen aux Jeux paralympiques 2016 à Rio de Janeiro et aux côtés de Diede de Groot aux Jeux paralympiques 2020 à Tokyo. Elle obtient également une médaille d'argent en simple aux Jeux paralympiques 2016, s'inclinant en finale face à sa partenaire habituelle en double, Jiske Griffioen.
 Précédemment en 2012, van Koot avait décroché deux médailles d'argent, une en simple, s'inclinant en finale face à Esther Vergeer, et une en double également en compagnie de Jiske Griffioen.
@@ -549,17 +563,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Jeux paralympiques
-Jeux paralympiques d'été de 2012 à Londres
+          <t>Jeux paralympiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jeux paralympiques d'été de 2012 à Londres
  médaillée d'argent en simple dames
  médaillée d'argent en double dames avec Jiske Griffioen
 Jeux paralympiques d'été de 2016 à Rio de Janeiro
  médaillée d'argent en simple dames
  médaillée d'or en double dames avec Jiske Griffioen
 Jeux paralympiques d'été de 2020 à Tokyo
- médaillée d'or en double dames avec Diede de Groot
-Titres en Grand Chelem
-Open d'Australie :
+ médaillée d'or en double dames avec Diede de Groot</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aniek_van_Koot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aniek_van_Koot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Titres en Grand Chelem</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Open d'Australie :
 en simple en 2013
 en double dames en 2010 avec Florence Gravellier, 2013, 2017 avec Jiske Griffioen, 2019, 2021, 2022 et 2023 avec Diede de Groot
 Roland-Garros :
@@ -569,10 +622,7 @@
 en double dames en 2012, 2013 avec Jiske Griffioen et 2019 avec Diede de Groot
 US Open :
 en simple en 2013
-en double dames en 2013, 2015 avec Jiske Griffioen, 2019, 2021 et 2022 avec Diede de Groot
-Masters
-Victoires au Masters en simple (1)
-Victoires au Masters en double (7)</t>
+en double dames en 2013, 2015 avec Jiske Griffioen, 2019, 2021 et 2022 avec Diede de Groot</t>
         </is>
       </c>
     </row>
